--- a/Assignments deadline.xlsx
+++ b/Assignments deadline.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2">
         <v>42478</v>

--- a/Assignments deadline.xlsx
+++ b/Assignments deadline.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>Unit</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>D1</t>
+  </si>
+  <si>
+    <t>Just D2</t>
   </si>
 </sst>
 </file>
@@ -558,7 +561,7 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,10 +652,14 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>42488</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">

--- a/Assignments deadline.xlsx
+++ b/Assignments deadline.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>Unit</t>
   </si>
@@ -55,28 +55,31 @@
     <t>Unit 3</t>
   </si>
   <si>
+    <t>Not given</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Unit 5</t>
+  </si>
+  <si>
+    <t>P2,P3,M1</t>
+  </si>
+  <si>
+    <t>Unit 6</t>
+  </si>
+  <si>
+    <t>Soon as</t>
+  </si>
+  <si>
+    <t>Unit 17</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Unit 5</t>
-  </si>
-  <si>
-    <t>P2,P3,M1</t>
-  </si>
-  <si>
-    <t>Unit 6</t>
-  </si>
-  <si>
-    <t>Soon as</t>
-  </si>
-  <si>
-    <t>Unit 17</t>
-  </si>
-  <si>
-    <t>D1</t>
   </si>
   <si>
     <t>All of it, 2 criteria</t>
@@ -375,8 +378,8 @@
   </sheetPr>
   <dimension ref="B2:F65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -385,7 +388,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -492,7 +495,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
@@ -620,36 +623,25 @@
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>42488</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="D3:D6,B3:F3">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="D7:D17">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"Resub"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D17">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>"Resub"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assignments deadline.xlsx
+++ b/Assignments deadline.xlsx
@@ -246,37 +246,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -379,7 +349,7 @@
   <dimension ref="B2:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -388,7 +358,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -409,20 +379,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
@@ -435,7 +405,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
@@ -448,7 +418,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
@@ -463,7 +433,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -598,7 +568,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
@@ -606,7 +576,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>42488</v>
@@ -634,14 +604,25 @@
     </row>
     <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="D7:D17">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+  <conditionalFormatting sqref="D4:D17">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Resub"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"Resub"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Assignments deadline.xlsx
+++ b/Assignments deadline.xlsx
@@ -46,22 +46,22 @@
     <t>Unit 2</t>
   </si>
   <si>
+    <t>Just D2</t>
+  </si>
+  <si>
+    <t>Unit 3</t>
+  </si>
+  <si>
+    <t>Not given</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Unit 5</t>
+  </si>
+  <si>
     <t>Resub</t>
-  </si>
-  <si>
-    <t>Just D2</t>
-  </si>
-  <si>
-    <t>Unit 3</t>
-  </si>
-  <si>
-    <t>Not given</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>Unit 5</t>
   </si>
   <si>
     <t>P2,P3,M1</t>
@@ -246,36 +246,24 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -349,7 +337,7 @@
   <dimension ref="B2:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -358,7 +346,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -441,18 +429,18 @@
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>42488</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>1</v>
@@ -467,30 +455,30 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>42488</v>
@@ -501,7 +489,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>2</v>

--- a/Assignments deadline.xlsx
+++ b/Assignments deadline.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon.light\Documents\BTEC IT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -88,12 +93,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -102,22 +103,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -140,132 +126,133 @@
     </fill>
   </fills>
   <borders count="6">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF000000"/>
         <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF000000"/>
+        <name val="Calibri"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" shrinkToFit="0"/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -324,33 +311,307 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:F65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7125506072874"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
+    <col min="1" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="11.42578125"/>
+    <col min="4" max="4" width="13.7109375"/>
+    <col min="5" max="5" width="10.7109375"/>
+    <col min="6" max="6" width="33"/>
+    <col min="7" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -367,11 +628,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -380,11 +641,11 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -393,11 +654,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -406,58 +667,58 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="6">
         <v>42480</v>
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="6">
         <v>42488</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="6">
         <v>42485</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -470,28 +731,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="6">
         <v>42488</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -500,11 +761,11 @@
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -515,26 +776,26 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="6">
         <v>42478</v>
       </c>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -543,11 +804,11 @@
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -556,70 +817,64 @@
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="6">
         <v>42488</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="6">
         <v>42488</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="D4:D17">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Resub"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D8">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="0" priority="6" operator="equal">
       <formula>"Resub"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>